--- a/BloomMaker/apl102_scn_stock_nw_04/docs/requirements/Nim059_apl102_New_model_SCN_stock.xlsx
+++ b/BloomMaker/apl102_scn_stock_nw_04/docs/requirements/Nim059_apl102_New_model_SCN_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/Web-Development/Pasona/Intra-mart/bloommaker/apl102_scn_stock_nw_04/docs/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE83F94-0518-C04D-9017-B29543AB5E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCE87E2-D225-2B45-BAB3-2C296943FE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">layout!$A$1:$AY$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -358,52 +356,25 @@
     <t>Chi tiết</t>
   </si>
   <si>
-    <t>- Nếu giá trị cột [部番] == null thì hiển thị msg lỗi bên dưới</t>
-  </si>
-  <si>
     <t>&lt;gridTable header name&gt;  has not been entered</t>
   </si>
   <si>
-    <t>- Nếu giá trị cột [部番] &gt; 12  bytes thì hiển thị thông báo bên dưới</t>
-  </si>
-  <si>
     <t>&lt;gridTable header name&gt; input &lt;= 12 bytes</t>
   </si>
   <si>
-    <t>- Giá trị cột [部番] chỉ cho phép nhập ký tự [A-Z], [a-z], [0-0]. Nếu khác ký tự trên thì hiển thị thông báo lỗi</t>
-  </si>
-  <si>
     <t>&lt;gridTable header name&gt; only alow characters [A-Z], [a-z], [0-9]</t>
   </si>
   <si>
-    <t>- Nếu giá trị cột [機種ユーザ] &gt; 4000  bytes thì hiển thị thông báo bên dưới</t>
-  </si>
-  <si>
     <t>&lt;gridTable header name&gt;  input &lt;= 4000 bytes</t>
   </si>
   <si>
-    <t>- Giá trị cột [ランク] chỉ cho phép nhập số 10 từ 0-9. Nếu khác ký tự trên thì hiển thị thông báo lỗi</t>
-  </si>
-  <si>
     <t>&lt;gridTable header name&gt; only alow characters [0-9] and have 10 bytes</t>
   </si>
   <si>
-    <t>- Giá trị cột [数量] chỉ cho phép nhập số 10 từ 0-9. Nếu khác ký tự trên thì hiển thị thông báo lỗi</t>
-  </si>
-  <si>
     <t>&lt;gridTable header name&gt; only alow characters [0-9] and have 10 characters</t>
   </si>
   <si>
-    <t>- Giá trị cột [枠開始日] chỉ cho phép nhập số có định dạng yyyy/mm/dd hh:mm:ss.  Nếu khác ký tự trên thì hiển thị thông báo lỗi</t>
-  </si>
-  <si>
     <t>&lt;gridTable header name&gt; entered value have format yyyy/mm/dd hh:mm:ss</t>
-  </si>
-  <si>
-    <t>- Giá trị cột [枠終了日] chỉ cho phép nhập số có định dạng yyyy/mm/dd hh:mm:ss.  Nếu khác ký tự trên thì hiển thị thông báo lỗi</t>
-  </si>
-  <si>
-    <t>- Nếu giá trị cột [枠の種類] &gt; 4000  bytes thì hiển thị thông báo bên dưới</t>
   </si>
   <si>
     <t>B. Thực hiện xóa tất cả dòng sql table sf_nimvn1142_apl102</t>
@@ -1284,6 +1255,33 @@
   </si>
   <si>
     <t>ckname</t>
+  </si>
+  <si>
+    <t>- Nếu giá trị cột [部番 - partNum] == null thì hiển thị msg lỗi bên dưới</t>
+  </si>
+  <si>
+    <t>- Nếu giá trị cột [部番 - partNum] &gt; 12  bytes thì hiển thị thông báo bên dưới</t>
+  </si>
+  <si>
+    <t>- Giá trị cột [部番 - partNum] chỉ cho phép nhập ký tự [A-Z], [a-z], [0-0]. Nếu khác ký tự trên thì hiển thị thông báo lỗi</t>
+  </si>
+  <si>
+    <t>- Nếu giá trị cột [機種ユーザ - modelUser] &gt; 4000  bytes thì hiển thị thông báo bên dưới</t>
+  </si>
+  <si>
+    <t>- Giá trị cột [ランク - rank] chỉ cho phép nhập số 10 từ 0-9. Nếu khác ký tự trên thì hiển thị thông báo lỗi</t>
+  </si>
+  <si>
+    <t>- Giá trị cột [数量 - quantity] chỉ cho phép nhập số 10 từ 0-9. Nếu khác ký tự trên thì hiển thị thông báo lỗi</t>
+  </si>
+  <si>
+    <t>- Giá trị cột [枠開始日 - boxStartDt] chỉ cho phép nhập số có định dạng yyyy/mm/dd hh:mm:ss.  Nếu khác ký tự trên thì hiển thị thông báo lỗi</t>
+  </si>
+  <si>
+    <t>- Giá trị cột [枠終了日 - boxEndDt] chỉ cho phép nhập số có định dạng yyyy/mm/dd hh:mm:ss.  Nếu khác ký tự trên thì hiển thị thông báo lỗi</t>
+  </si>
+  <si>
+    <t>- Nếu giá trị cột [枠の種類 - boxType] &gt; 4000  bytes thì hiển thị thông báo bên dưới</t>
   </si>
 </sst>
 </file>
@@ -3270,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AS109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="X72" sqref="X72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="14"/>
@@ -5402,7 +5400,7 @@
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="30" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="30"/>
@@ -5447,7 +5445,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
@@ -5532,7 +5530,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="30" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
@@ -5578,7 +5576,7 @@
       <c r="D53" s="14"/>
       <c r="E53" s="30"/>
       <c r="F53" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
@@ -5655,7 +5653,7 @@
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="30" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
@@ -5701,7 +5699,7 @@
       <c r="D56" s="14"/>
       <c r="E56" s="30"/>
       <c r="F56" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
@@ -5778,7 +5776,7 @@
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="30" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="30"/>
@@ -5824,7 +5822,7 @@
       <c r="D59" s="14"/>
       <c r="E59" s="30"/>
       <c r="F59" s="30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
@@ -5913,7 +5911,7 @@
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="30" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="14"/>
@@ -5962,7 +5960,7 @@
       <c r="D62" s="14"/>
       <c r="E62" s="30"/>
       <c r="F62" s="30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
@@ -6055,7 +6053,7 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="30" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="14"/>
@@ -6104,7 +6102,7 @@
       <c r="D65" s="14"/>
       <c r="E65" s="30"/>
       <c r="F65" s="30" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
@@ -6197,7 +6195,7 @@
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="30" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="14"/>
@@ -6246,7 +6244,7 @@
       <c r="D68" s="14"/>
       <c r="E68" s="30"/>
       <c r="F68" s="30" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
@@ -6339,7 +6337,7 @@
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="30" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="F70" s="28"/>
       <c r="P70" s="14"/>
@@ -6367,7 +6365,7 @@
       <c r="D71" s="14"/>
       <c r="E71" s="30"/>
       <c r="F71" s="30" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
@@ -6427,7 +6425,7 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="30" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="30"/>
@@ -6459,7 +6457,7 @@
       <c r="C74" s="14"/>
       <c r="E74" s="30"/>
       <c r="F74" s="30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G74" s="30"/>
       <c r="H74" s="30"/>
@@ -6496,7 +6494,7 @@
       <c r="B76" s="51"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F76" s="28"/>
       <c r="P76" s="14"/>
@@ -6514,7 +6512,7 @@
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
@@ -6539,7 +6537,7 @@
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
@@ -6563,7 +6561,7 @@
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="G79" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
@@ -6609,7 +6607,7 @@
       <c r="B81" s="51"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
@@ -7033,7 +7031,7 @@
       <c r="B96" s="51"/>
       <c r="C96" s="14"/>
       <c r="E96" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
@@ -7057,7 +7055,7 @@
       <c r="C97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
@@ -7080,7 +7078,7 @@
       <c r="C98" s="14"/>
       <c r="E98" s="14"/>
       <c r="G98" s="14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
@@ -7118,7 +7116,7 @@
       <c r="B100" s="51"/>
       <c r="C100" s="14"/>
       <c r="E100" s="14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F100" s="28"/>
       <c r="G100" s="14"/>
@@ -7146,7 +7144,7 @@
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
@@ -7173,7 +7171,7 @@
       <c r="E102" s="14"/>
       <c r="F102" s="28"/>
       <c r="G102" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
@@ -7361,67 +7359,67 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="C16" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -7446,85 +7444,85 @@
     <row r="2" spans="2:30" s="1" customFormat="1">
       <c r="B2" s="2"/>
       <c r="D2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:30">
@@ -7532,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:30">
@@ -7540,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:30">
@@ -7548,7 +7546,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:30">
@@ -7556,7 +7554,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:30">
@@ -7564,7 +7562,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:30">
@@ -7572,7 +7570,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:30">
@@ -7580,7 +7578,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:30">
@@ -7588,7 +7586,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:30">
@@ -7596,7 +7594,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="2:30">
@@ -7604,7 +7602,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="2:30">
@@ -7612,7 +7610,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="2:30">
@@ -7620,7 +7618,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:30">
@@ -7628,7 +7626,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -7636,7 +7634,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -7644,7 +7642,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -7652,7 +7650,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -7660,7 +7658,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -7668,7 +7666,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -7676,7 +7674,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -7684,7 +7682,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -7692,7 +7690,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -7700,7 +7698,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -7708,7 +7706,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -7716,7 +7714,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -7724,7 +7722,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -7732,7 +7730,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -7740,7 +7738,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
